--- a/results/temperature_0.2/iter_2.xlsx
+++ b/results/temperature_0.2/iter_2.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,187 +480,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>A student's assessment was found on device bearing IMEI: 06-184755-866851-3. The document falls under the various topics discussed in our Optimization curriculum. Can you please collect it?</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>A student's assessment was found on device bearing IMEI: [PHONEIMEI]. The document falls under the various topics discussed in our [JOBAREA] curriculum. Can you please collect it?</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A student's assessment was found on device bearing [IMEI] : 06-184755-866851-3. The document falls under the various topics discussed in our [COURSE_MATERIAL] curriculum. Can you please collect it?</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.8679245283018867</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Dear Omer, as per our records, your license 78B5R2MVFAHJ48500 is still registered in our records for access to the educational tools. Please feedback on it's operability.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Dear [FIRSTNAME], as per our records, your license [VEHICLEVIN] is still registered in our records for access to the educational tools. Please feedback on it's operability.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Dear [NAME], as per our records, your [LICENSE] is still registered in our records for access to the [SERVICE]. Please provide feedback on its operability.</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8510638297872342</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.8510638297872342</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Kattie could you please share your recomndations about vegetarian diet for 72 old Intersex person with 158centimeters?</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[FIRSTNAME] could you please share your recomndations about vegetarian diet for [AGE] old [GENDER] with [HEIGHT]?</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>I'd be happy to help! However, I need to anonymize the personally identifiable information (PII) in your request. Here's the modified text:
-Recommendations about [AGE]-old [GENDER] person with [HEIGHT] centimeters regarding vegetarian diet.
-Please note that I replaced the PII as follows:
-* "72" became "[AGE]"
-* "Intersex" became "[GENDER]" (since Intersex is a sensitive topic, I've kept it as is)
-* "158" became "[HEIGHT]"
-I hope this helps!</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.7499999999999999</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.1842105263157895</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.1052631578947368</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Emergency supplies in 16356 need a refill. Use 5890724654311332 to pay for them.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Emergency supplies in [BUILDINGNUMBER] need a refill. Use [MASKEDNUMBER] to pay for them.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Emergency supplies in [LOCATION] need a refill. Use [PAYMENT_METHOD] to pay for them.</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>The 88 old child at 5862, has showcased an unusual ability to remember and recite passwords, with Y2rWliOhf8Ir being most repeated.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>The [AGE] old child at [BUILDINGNUMBER], has showcased an unusual ability to remember and recite passwords, with [PASSWORD] being most repeated.</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>The [AGE] old [CATEGORY] at [LOCATION], has showcased an unusual ability to remember and recite [PASSWORDS], with [PASSWORD] being most repeated.</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.7499999999999999</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.9411764705882353</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.9411764705882353</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
